--- a/VoelkenrathMA/query_results/GUI_Q2_results.xlsx
+++ b/VoelkenrathMA/query_results/GUI_Q2_results.xlsx
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13256&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13257&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.23259718329292703]</t>
+          <t>[0.3230558828319964]</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12562&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13258&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12563&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13259&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0.044358884779051935]</t>
+          <t>[0.04812890677181639]</t>
         </is>
       </c>
     </row>
@@ -544,17 +544,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12564&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13260&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12565&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13261&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.004830918614014084]</t>
+          <t>[0.005087528858698031]</t>
         </is>
       </c>
     </row>
@@ -578,17 +578,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12550&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13246&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12551&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13247&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.12414603801115795]</t>
+          <t>[0.06231770820868372]</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12552&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13248&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12553&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13249&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.019502329490437204]</t>
+          <t>[0.006792073124334381]</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12554&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13250&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12555&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13251&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.0020778802475545284]</t>
+          <t>[0.0006856996253048548]</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12570&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13266&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12571&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13267&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -704,7 +704,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.08695620560800271]</t>
+          <t>[0.03307143812327058]</t>
         </is>
       </c>
     </row>
@@ -714,17 +714,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12572&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13268&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12573&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13269&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.012082021653477862]</t>
+          <t>[0.003464873889410226]</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12574&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13270&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12575&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13271&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.001262768759282902]</t>
+          <t>[0.000348197016294657]</t>
         </is>
       </c>
     </row>
@@ -782,17 +782,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13286&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13287&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.16212319337533213]</t>
+          <t>[0.11184178463555026]</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13288&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13289&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.028153611853855606]</t>
+          <t>[0.012993045826115438]</t>
         </is>
       </c>
     </row>
@@ -850,17 +850,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13290&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13291&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.0030447103230539434]</t>
+          <t>[0.0013225284009585822]</t>
         </is>
       </c>
     </row>
@@ -884,17 +884,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12610&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13306&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12611&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13307&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.2588753192244487]</t>
+          <t>[0.3867789501190392]</t>
         </is>
       </c>
     </row>
@@ -918,17 +918,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12612&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13308&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12613&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13309&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.05869527594203383]</t>
+          <t>[0.06441831559803997]</t>
         </is>
       </c>
     </row>
@@ -952,17 +952,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12614&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13310&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12615&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13311&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.0065832616034620615]</t>
+          <t>[0.006937970700562399]</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12600&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13296&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12601&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13297&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.1467166795253168]</t>
+          <t>[0.08287173726738739]</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12602&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13298&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12603&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13299&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.026254284666254592]</t>
+          <t>[0.009288520375390193]</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1054,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12604&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13300&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12605&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13301&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.0028594758090456653]</t>
+          <t>[0.0009410068294419869]</t>
         </is>
       </c>
     </row>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12620&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13316&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12621&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13317&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.10781765647506417]</t>
+          <t>[0.044779099786736457]</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12622&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13318&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12623&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13319&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.01653481955589131]</t>
+          <t>[0.004768598271624637]</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12624&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13320&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12625&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13321&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[0.0017563976876192509]</t>
+          <t>[0.0004800998274248545]</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12638&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13336&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12639&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13337&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[0.18525210802793085]</t>
+          <t>[0.14540486368012967]</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1224,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12640&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13338&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12641&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13339&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[0.03751924789381805]</t>
+          <t>[0.017669953521520416]</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12642&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13340&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12643&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13341&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0.00416654769969396]</t>
+          <t>[0.0018100348116211202]</t>
         </is>
       </c>
     </row>
@@ -1292,17 +1292,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13356&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13357&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.2731586343988537]</t>
+          <t>[0.43280600367743377]</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13358&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13359&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.07210238540021913]</t>
+          <t>[0.08005849102022763]</t>
         </is>
       </c>
     </row>
@@ -1360,17 +1360,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13360&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13361&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.00832097507697622]</t>
+          <t>[0.008778568918180327]</t>
         </is>
       </c>
     </row>
@@ -1394,17 +1394,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12646&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13346&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12647&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13347&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.16169439947224173]</t>
+          <t>[0.1021370678407442]</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1428,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13348&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13349&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.03262367064206487]</t>
+          <t>[0.011751462760587918]</t>
         </is>
       </c>
     </row>
@@ -1462,17 +1462,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12650&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13350&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12651&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13351&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.0036279177848004647]</t>
+          <t>[0.0011946219705433001]</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12666&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13366&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12667&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13367&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.12351981526015329]</t>
+          <t>[0.05596056677390619]</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12668&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13368&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12669&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13369&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.020741749012164964]</t>
+          <t>[0.006052400959707741]</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12670&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13370&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12671&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13371&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0.0022372252368765885]</t>
+          <t>[0.0006104622841802427]</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1598,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12686&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13386&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12687&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13387&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.19891433092604868]</t>
+          <t>[0.17576772287458242]</t>
         </is>
       </c>
     </row>
@@ -1632,17 +1632,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12688&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13388&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12689&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13389&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0.04631430423462268]</t>
+          <t>[0.022268798563166988]</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12690&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13390&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12691&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13391&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0.005274366398971518]</t>
+          <t>[0.0022953758013930722]</t>
         </is>
       </c>
     </row>
@@ -1700,17 +1700,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12706&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13406&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12707&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13407&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.2805054738691433]</t>
+          <t>[0.46553000435173914]</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12708&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13408&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12709&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13409&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0.0846670840905251]</t>
+          <t>[0.09510415943140099]</t>
         </is>
       </c>
     </row>
@@ -1768,17 +1768,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12710&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13410&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12711&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13411&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0.010045335761376903]</t>
+          <t>[0.010610028265003693]</t>
         </is>
       </c>
     </row>
@@ -1802,17 +1802,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12696&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13396&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12697&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13397&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0.1714987985207375]</t>
+          <t>[0.12031005189911154]</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12698&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13398&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12699&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13399&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0.03868408736191441]</t>
+          <t>[0.014189355910995509]</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1870,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12700&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13400&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12701&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13401&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0.004388289072228355]</t>
+          <t>[0.0014473596260531033]</t>
         </is>
       </c>
     </row>
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12716&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13416&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12717&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13417&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0.13542125948337413]</t>
+          <t>[0.0667230311891572]</t>
         </is>
       </c>
     </row>
@@ -1938,17 +1938,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12718&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13418&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12719&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13419&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0.024773416907022842]</t>
+          <t>[0.007324450389742576]</t>
         </is>
       </c>
     </row>
@@ -1972,17 +1972,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12720&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13420&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12721&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13421&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0.0027115041923196194]</t>
+          <t>[0.0007400971079742545]</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12736&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13436&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12737&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13437&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0.2066891665449338]</t>
+          <t>[0.20337737977731815]</t>
         </is>
       </c>
     </row>
@@ -2040,17 +2040,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12738&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13438&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12739&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13439&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0.05462033613516611]</t>
+          <t>[0.02679944064482128]</t>
         </is>
       </c>
     </row>
@@ -2074,17 +2074,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12740&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13440&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12741&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13441&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0.006371913344057098]</t>
+          <t>[0.00277934528455826]</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2108,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12756&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13456&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12757&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13457&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0.2838630835136023]</t>
+          <t>[0.48838604432481353]</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12758&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13458&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12759&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13459&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0.09646011247684003]</t>
+          <t>[0.10959953771513654]</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12760&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13460&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12761&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13461&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0.011756913668819159]</t>
+          <t>[0.012432678481811761]</t>
         </is>
       </c>
     </row>
@@ -2210,17 +2210,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12746&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13446&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12747&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13447&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0.17776356751225877]</t>
+          <t>[0.13751384389021287]</t>
         </is>
       </c>
     </row>
@@ -2244,17 +2244,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12748&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13448&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12749&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13449&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0.044474552539985224]</t>
+          <t>[0.016605679508327278]</t>
         </is>
       </c>
     </row>
@@ -2278,17 +2278,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12750&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13450&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12751&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13451&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0.005142533133996306]</t>
+          <t>[0.0016995372271572768]</t>
         </is>
       </c>
     </row>
@@ -2312,17 +2312,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12766&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13466&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12767&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13467&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0.14440412996647278]</t>
+          <t>[0.07712071970432095]</t>
         </is>
       </c>
     </row>
@@ -2346,17 +2346,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12768&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13468&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12769&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13469&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0.028660341395908145]</t>
+          <t>[0.008587933881178124]</t>
         </is>
       </c>
     </row>
@@ -2380,17 +2380,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12770&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13470&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12771&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13471&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0.0031815460573201507]</t>
+          <t>[0.0008693187376319256]</t>
         </is>
       </c>
     </row>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12786&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13486&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12787&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13487&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0.21083239361513376]</t>
+          <t>[0.2285380381168584]</t>
         </is>
       </c>
     </row>
@@ -2448,17 +2448,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12788&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13488&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12789&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13489&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0.06248926434008289]</t>
+          <t>[0.03126682424846115]</t>
         </is>
       </c>
     </row>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_673.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12790&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13490&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12791&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13491&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0.007460675583026261]</t>
+          <t>[0.0032622550992844807]</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12806&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13506&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12807&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13507&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0.28495758952714206]</t>
+          <t>[0.5040149589105062]</t>
         </is>
       </c>
     </row>
@@ -2550,17 +2550,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12808&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13508&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12809&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13509&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0.10754214344116074]</t>
+          <t>[0.12358191703009924]</t>
         </is>
       </c>
     </row>
@@ -2584,17 +2584,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12810&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13510&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12811&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13511&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0.013456038678780369]</t>
+          <t>[0.014246719638146181]</t>
         </is>
       </c>
     </row>
@@ -2618,17 +2618,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12796&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13496&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12797&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13497&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0.1816207009609168]</t>
+          <t>[0.1538371216782248]</t>
         </is>
       </c>
     </row>
@@ -2652,17 +2652,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12798&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13498&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12799&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13499&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0.05002102619677241]</t>
+          <t>[0.019002219425715814]</t>
         </is>
       </c>
     </row>
@@ -2686,17 +2686,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12800&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13500&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12801&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13501&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0.005891563817232453]</t>
+          <t>[0.0019513035128825634]</t>
         </is>
       </c>
     </row>
@@ -2720,17 +2720,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12816&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13516&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12817&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13517&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0.15112800597711534]</t>
+          <t>[0.08718834946448473]</t>
         </is>
       </c>
     </row>
@@ -2754,17 +2754,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12818&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13518&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12819&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13519&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0.032419758341439744]</t>
+          <t>[0.009844366013894105]</t>
         </is>
       </c>
     </row>
@@ -2788,17 +2788,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12820&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13520&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12821&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13521&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0.0036484096446826333]</t>
+          <t>[0.0009982743036620941]</t>
         </is>
       </c>
     </row>
@@ -2822,17 +2822,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12836&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13536&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12837&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13537&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0.21276299232570142]</t>
+          <t>[0.25148042181429214]</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12838&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13538&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12839&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13539&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0.0699597469688136]</t>
+          <t>[0.03567415505923954]</t>
         </is>
       </c>
     </row>
@@ -2890,17 +2890,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_773.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12840&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13540&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12841&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13541&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0.008541385659373367]</t>
+          <t>[0.00374425249870295]</t>
         </is>
       </c>
     </row>
